--- a/resources/job_postings.xlsx
+++ b/resources/job_postings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15619\IBM Data Analyst Professional Certificate\Capstone\job_trends_analysis\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A40B3-C503-4576-915D-E9EE5D561D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C4E97-06BE-4962-B171-891546B60437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,9 +162,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -191,9 +191,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -226,13 +226,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -241,25 +267,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Washington DC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Detroit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Seattle</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Los Angeles</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>New York</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>San Francisco</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Washington DC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Seattle</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Austin</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Detroit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -271,25 +297,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>5316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3226</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3226</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>435</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5316</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3375</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,8 +334,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="1254914480"/>
         <c:axId val="1195988272"/>
       </c:barChart>
@@ -327,9 +353,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -356,9 +382,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -377,7 +403,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -393,7 +419,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -421,7 +447,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -438,9 +464,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -467,9 +493,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -498,7 +524,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -537,7 +563,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -551,11 +577,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -589,9 +611,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -618,9 +640,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -653,13 +675,39 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -668,40 +716,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>MySQL Server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PostgreSQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MongoDB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SQL Server</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oracle</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Java</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C#</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>C++</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JavaScript</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Python</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scala</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Oracle</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>SQL Server</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MySQL Server</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>PostgreSQL</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>MongoDB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -713,40 +761,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2609</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>13498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1173</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>784</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,7 +813,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="100"/>
         <c:axId val="1195985776"/>
         <c:axId val="1195986608"/>
       </c:barChart>
@@ -783,9 +831,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -794,13 +842,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Programming</a:t>
+                  <a:t>Programming Language</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Language</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -817,9 +860,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -838,7 +881,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -854,7 +897,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -883,7 +926,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -900,9 +943,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -929,9 +972,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -960,7 +1003,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -999,7 +1042,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1013,11 +1056,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1111,33 +1150,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1152,7 +1185,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1160,7 +1193,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1168,17 +1201,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1187,9 +1217,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1212,35 +1241,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1249,33 +1278,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1291,21 +1319,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1339,64 +1362,157 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1404,102 +1520,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1507,17 +1527,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1526,12 +1546,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1540,14 +1557,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1556,10 +1573,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1568,7 +1582,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1589,10 +1603,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1601,46 +1612,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1655,7 +1654,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1663,7 +1662,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1671,17 +1670,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1690,9 +1686,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1715,35 +1710,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1752,33 +1747,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1794,21 +1788,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1818,23 +1807,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1843,64 +1831,156 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1908,102 +1988,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2011,17 +1995,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2030,12 +2014,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2044,14 +2025,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2060,10 +2041,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -2072,20 +2050,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2094,10 +2071,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -2106,14 +2080,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2159,15 +2127,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2483,7 +2451,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2502,58 +2470,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>640</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>3226</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>435</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>5316</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>3375</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>3945</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2566,101 +2534,104 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>2609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>13498</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>333</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>305</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>355</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1173</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>33</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>784</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>250</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>10</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
-        <v>174</v>
+        <v>13498</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:B21">
+    <sortCondition ref="B10:B21"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
